--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_7.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_7.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_7_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2217,4 +2218,6575 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B655"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>发送</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>免</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>打扰</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>语音</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>查询</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>非常</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>位置</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>聊天记录</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>拉</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>声音</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>清空</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>年</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>编辑</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>红色</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>布局</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>短</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>盒子</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>复制</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>一条</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>粘贴</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>发出</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>骚扰</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>录音</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>黑</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>调整</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>迅速</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>置</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>申请</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>重要</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>切换</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>短暂</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>提示音</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>完</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>发送者</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>阅读</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>未读</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>错位</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>灰</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>长</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>协调</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>排列</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>差</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>回复</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>栏中</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>帖子</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>历史记录</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>认为</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>比较</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>干扰</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>段</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>开启</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>或点</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>风格</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>误认为</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>栏</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>jayme</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>选中</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>不美观</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>处于</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>以前</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>加</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>暂无</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>视觉效果</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>时会</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>现在</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>互动</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>覆盖</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>感觉</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>发</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>质量</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>反应</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>中有</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>转换</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>了解</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>进去</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>禁用</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>弹出</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>对话框</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>界面设计</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>保持</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>最新消息</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>错过</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>习惯</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>前面</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>一长</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>听取</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>下面</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>当天</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>排版</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>不一致性</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>过于</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>不适</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>跨越</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>铃声</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>复现</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>闪烁</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>杂音</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>上方</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>卸载</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>提示框</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>里</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>输入框</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>当有</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>遮挡</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>注意力</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>显得</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>对应</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>严重</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>‘</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>申请加入</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>突然</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>身份</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>’</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>常见</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>交流</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>发布公告</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>音频</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>推送</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>音量</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>^</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>撤回</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>放置</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>进不去</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>不好</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>生命周期</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>二次</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>首次</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>听到</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>过多会</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>激活</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>重叠</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>弹</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>一系列</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>通话录音</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>设备</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>指定</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>过大</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>网络</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>原始</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>新人</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>相比</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>差距</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>简短</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>依旧</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>光标</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>示例</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>移除</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>高亮</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>禁言</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>圆圈</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>插入</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>技术</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>～</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>弹框</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>网络连接</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>统一</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>粗糙</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>跳转</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>很多</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>成</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>分割</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>表情</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>有人</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>速度</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>一种</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>遭受</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>容易</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>人拉入</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>入</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>防止</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>黑后</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>便</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>沮丧</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>变化</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>闪现</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>格式</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>缺少</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>每次</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>群中</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>程度</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>流畅</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>混合</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>刺耳</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>开</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>相连接</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>本机</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>极大</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>刷新</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>无用</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>反复</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>灰色</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>变为</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>减慢</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>反应速度</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>清楚</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>尺寸</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>查</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>持续时间</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>满一屏</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>一屏</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>未满</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>复杂性</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>回</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>目标</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>产生误解</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>流畅性</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>中国联通</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>录制</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>传输</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>播放</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>需</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>关闭</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ps</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>太短</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>模式</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>合并</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>此类</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>群内</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>慢</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>本来</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>延时</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>较大</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>发图片</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>有个</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>均</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>各项</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>看清</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>过快</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>响应速度</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>平衡</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>感叹号</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>右侧</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>相对</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>中未</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>性</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>友好</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>实用性</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>基本功能</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>有限</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>信息内容</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>到来</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>两条</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>聊聊天</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>前提条件</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>遇到困难</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>能查</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>清除</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>超出</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>检索</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>拒绝请求</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>屏蔽</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>还会</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>集中</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>一点</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>音量控制</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>媒体</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>依赖</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>振动模式</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>缺失</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>跨</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>输出</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>违背</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>以后</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>公告</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>说</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>无法访问</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>晴朗</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>排序功能</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>随机</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>黑色</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>几条</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>海洋</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>天空</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>背景</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>意外</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>行驶</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>公路</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>轿车</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>运动型</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>白色</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>一辆</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>安全漏洞</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>优先</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>点赞</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>触发</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>点</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>范围</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>预设</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>讨论组</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>避免</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>简洁</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>时才</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>提升</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>分散</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>必要</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>不当</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>群则</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>群在</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>呈现</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>分钟</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>详情</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>或赞</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>标记</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>安静</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>环境</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>下时</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>指示器</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>进度</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>振动</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>启用</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>稍后</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>红米</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>若该</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>某位</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>证明</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>传递</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>中断</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>通信</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>控件</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>面板</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>表示</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>圆点</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>多余</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>合理</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>元素</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>显示方式</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>项</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>标准</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>审美</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>地方</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>简陋</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>找</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>难</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>太深</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>隐藏</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>对齐</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>选择器</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>出去</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>网</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>概率</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>通常</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>常规</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>表情符号</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>笑脸</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>三个</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>气泡</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>蓝色</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>窗口</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>错误行为</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>优化</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>调试</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>综合</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>看出</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>给我发</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>扔</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>辨别</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>不利于</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>运行</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>note3</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>离开</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>而仅</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>一直</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>像是</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>供</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>新创建</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>对话</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>配置</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>不变</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>中间</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>已近</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>审批</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>群发</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>版本</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>某某某</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>轻</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_7.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_7.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,776 +437,1201 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000009639</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>在进入聊天界面发送消息"给我100元"时，系统未显示预期的安全提示，表明可能存在安全漏洞或功能缺陷。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>进入 聊天 界面 发送 消息 " 100 元 " 系统 未 预期 安全 提示 表明 安全漏洞 缺陷</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>10010000007745</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>不正常退出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>问题描述：消息盒子显示异常，无法正常展示通知信息。
 图片描述：一辆白色运动型轿车在公路上行驶，背景为晴朗的天空和海洋。</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>消息 盒子 异常 无法 正常 展示 通知 信息 
  图片 一辆 白色 运动型 轿车 公路 行驶 背景 晴朗 天空 海洋</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10010000008351</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>问题描述与图片内容不符，显示了重复的消息提示，而实际内容仅显示了一条。</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>图片 内容 不符 重复 消息 提示 内容 仅 一条</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10010000009300</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>在聊天界面中，当用户发送几条消息后，即使聊天记录被删除，这些消息仍然存在于历史记录中。</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>聊天 界面 发送 几条 消息 聊天记录 删除 消息 仍然 历史记录</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000007480</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>问题描述与图片内容不符，显示了重复的消息提示，而实际内容仅显示了一条。</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>图片 内容 不符 重复 消息 提示 内容 仅 一条</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>用户体验</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>在聊天界面中，当用户发送几条消息后，即使聊天记录被删除，这些消息仍然存在于历史记录中。</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>聊天 界面 发送 几条 消息 聊天记录 删除 消息 仍然 历史记录</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>消息盒子点击编辑进去之后，退出时会有不正常的退出，界面显示黑色。</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>消息 盒子 点击 编辑 进去 之后 退出 时会 正常 退出 界面显示 黑色</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000008627</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>该bug描述了一个软件功能异常的情况。具体表现为：用户在未查看群组消息的情况下退出应用，之后在系统通知栏点击该消息通知重新进入应用时，应用出现了不正常的退出行为。这可能意味着应用在处理某些特定操作或状态转换时遇到了问题，导致其无法正确响应用户的请求或保持其预期的状态。</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>软件 异常 情况 具体表现 未 查看 群组 消息 情况 退出 应用 之后 系统 通知 栏 点击 消息 通知 重新 进入 应用 应用 出现 正常 退出 行为 意味着 应用 处理 特定 状态 转换 遇到 无法 正确 响应 请求 保持 预期 状态</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>不正常退出</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>10010000007516</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>在杰迷吧的消息列表中，新发送的消息并未按照最新消息的排序规则显示在最前面，而是随机出现在界面的不同位置。经过测试发现，该应用的消息排序功能似乎存在问题，导致最新消息并未被优先展示。</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>杰迷 消息 列表 新 发送 消息 并未 最新消息 排序 规则 前面 随机 出现 界面 不同 位置 发现 应用 消息 排序功能 最新消息 并未 优先 展示</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000007625</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>该软件在用户对自己帖子进行点赞操作时，并未触发消息盒子的新消息提示功能。同时，消息盒子右上角未出现预期的红色消息点标记。</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>帖子 进行 点赞 并未 触发 消息 盒子 新 消息 提示 消息 盒子 右上角 未 出现 预期 红色 消息 点 标记</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000007630</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>该软件界面在设计时存在一个明显的功能缺陷。当用户尝试查看他们帖子或点赞的回复或赞详情时，系统只展示了最新的消息时间，如“16分钟前”，而没有提供具体的回复或点赞发生的时间。这导致用户无法准确地知道这些互动是何时发生的，从而影响了用户的使用体验。</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>界面 设计 明显 缺陷 查看 帖子 或点 赞 回复 或赞 详情 系统 展示 最新 消息 时间 16 分钟 前 没有 提供 具体 回复 或点 赞 发生 时间 无法 准确 知道 互动 发生</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000008125</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>该“好友消息助手”的“更多信息”选项无法正常显示，呈现为空白。</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>好友 消息 助手 更 信息 选项 无法 正常 呈现 空白</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000009229</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>某些群在接收到新消息时，系统通知栏并未提供提示功能，而其他群则可以。此外，当消息提示出现后，用户无法在通知栏中进行点击操作。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>群在 接收 新 消息 系统 通知 栏 并未 提供 提示 群则 消息 提示 出现 无法 通知 栏中 进行 点击</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000009414</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>该软件的消息撤回功能没有时间限制，导致用户无法及时查看或处理消息。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>消息 撤回 没有 时间 限制 无法 及时 查看 处理 消息</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000008349</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>该软件在处理群组历史消息时出现了bug。尽管用户成功创建了群组，并且在查看历史消息时可以正常显示用户头像，但是却没有显示对应的用户名称。这导致用户无法确认具体是哪一个成员发送了消息。</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>处理 群组 历史 消息 出现 成功 创建 群组 查看 历史 消息 正常 头像 没有 对应 名称 无法 确认 具体 成员 发送 消息</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000007904</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>在聊天界面中，当没有消息跨越屏幕时，“更多消息”提示标签仍然存在。这可能会误导用户认为存在聊天记录，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>聊天 界面 没有 消息 跨越 屏幕 更 消息 提示 标签 仍然 误导 认为 聊天记录</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000009917</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>在聊天界面中，更多消息查看的功能标签位置设置不当，导致用户界面显示异常。当没有新消息时，该标签仍然出现在屏幕的上方，这可能会误导用户认为存在聊天记录。这种设计不符合用户体验原则，因为它在没有必要的情况下分散了用户的注意力。为了提升用户体验，建议当有新消息跨越一屏幕时才显示该功能标签，否则应保持界面简洁，避免不必要的视觉干扰。</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>聊天 界面 更 消息 查看 标签 位置 设置 不当 用户界面 异常 没有 新 消息 标签 仍然 出现 屏幕 上方 误导 认为 聊天记录 设计 符合 原则 没有 必要 情况 分散 注意力 提升 建议 当有 新 消息 跨越 屏幕 时才 标签 应 保持 界面 简洁 避免 不必要 视觉 干扰</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000008161</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>在手机聊天讨论组中查找“历史消息”时，选择的时间超过了系统预设的时间范围。</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>手机 聊天 讨论组 查找 历史 消息 选择 时间 超过 系统 预设 时间 范围</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000009233</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>问题描述：在执行应用的卸载操作后，用户的最近群聊和消息记录被意外地清空了。此外，用户只能在我的群组里查看到他们之前加入的所有群聊，而无法访问任何具体的聊天内容或历史消息。这可能表明在应用的卸载过程中，相关的数据存储和检索功能出现了问题。</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>执行 应用 卸载 最近 群聊 消息 记录 意外 清空 只能 群组 里 查看 之前 加入 群聊 无法访问 具体 聊天 内容 历史 消息 表明 应用 卸载 过程 相关 数据 存储 检索 出现</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000009581</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>在个人聊天还有群聊发送消息的过程中
 发送的字符超出了限制之后没有相关的提示</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>个人 聊天 群聊 发送 消息 过程 
  发送 字符 超出 限制 之后 没有 相关 提示</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000008640</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>该软件中存在一个bug，即在清空群组消息后，消息并未完全被清除。尽管在聊天界面中可以清空所有消息，但是在打开群组设置后，用户仍然可以在聊天记录中找到这些已被清空的消息。这可能是由于软件在处理消息删除请求时出现了错误或延迟，导致消息未被正确更新至聊天记录中。</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>清空 群组 消息 消息 并未 完全 清除 聊天 界面 清空 消息 打开 群组 设置 仍然 聊天记录 找到 清空 消息 软件 处理 消息 删除 请求 出现 错误 延迟 消息 未 正确 更新 聊天记录</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000009316</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>该语音消息在接收时出现了异常的杂音现象，导致用户难以正常听取语音内容。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>语音 消息 接收 出现 异常 杂音 现象 难以 正常 听取 语音 内容</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000009494</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>历史消息的时间搜索选择当天之后的时间，消息记录仍然可以看到</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>历史 消息 时间 搜索 选择 当天 之后 时间 消息 记录 仍然 看到</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000009552</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>进行清空聊天消息记录时，删除成功后，在聊天历史记录时仍能查到消息记录</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>进行 清空 聊天 消息 记录 删除 成功 聊天 历史记录 能查 消息 记录</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10010000009714</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>这个软件的@功能似乎存在不一致性。在某些情况下，用户可以成功地在消息中@自己，但在其他时候，该功能无法正常工作，导致用户无法@自己。这可能会导致用户在尝试执行某些操作时遇到困难，从而影响整体的使用体验。</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>软件 @ 不一致性 情况 成功 消息 @ 无法 正常 工作 无法 @ 执行 遇到困难 整体</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000009702</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>前提条件:群聊聊天记录中存在两条删除的消息
 复现步骤:进入历史记录删除的消息仍然存在</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>前提条件 : 群 聊聊天 记录 两条 删除 消息 
  复现 : 进入 历史记录 删除 消息 仍然</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10010000009260</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>该bug发生在消息助手的时间选择功能中。用户在查看群消息记录时，尝试调整到2018年或之后的时间，这违反了系统设计原则，因为历史消息只能显示到当前时间之前的信息。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>发生 消息 助手 时间 选择 查看 群 消息 记录 调整 2018 年 之后 时间 违反 系统 设计 原则 历史 消息 只能 当前 时间 之前 信息</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000008450</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>在软件的群消息助手和好友消息助手功能中，用户在查看消息界面时可以明显看到有未读消息存在。然而，当用户尝试点击查看更多消息时，系统并未显示任何消息记录。此现象表明软件在处理消息列表更新上存在缺陷，导致即使有新消息到来，用户也无法查看到具体的信息内容。</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>软件 群 消息 助手 好友 消息 助手 查看 消息 界面 明显 看到 未读 消息 点击 查看 更 消息 系统 并未 消息 记录 现象 表明 软件 处理 消息 列表 更新 缺陷 新 消息 到来 无法 查看 具体 信息内容</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000008463</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>该软件界面显示的功能选项非常有限，没有提供撤回消息或其他常见聊天应用中常见的功能。用户可能会感到不便，因为缺乏这些基本功能限制了其实用性和用户友好性。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>界面显示 选项 非常 有限 没有 提供 撤回 消息 常见 聊天 应用 常见 感到 不便 缺乏 基本功能 限制 实用性 友好 性</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000008564</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>在这个群消息助手中未提示我对请求加入群组的消息是拒绝还是同意。应给出相对应的回复提示。‘同意请求’还是‘拒绝请求’</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>群 消息 助手 中未 提示 请求 加入 群组 消息 拒绝 同意 应 给出 相对 应 回复 提示 ‘ 同意 请求 ’ ‘ 拒绝请求 ’</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000009340</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>对于群消息的提示，不是免打扰就是所有消息都提示，不能屏蔽</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>群 消息 提示 免 打扰 消息 提示 不能 屏蔽</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000008635</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>用户消息提示问题，在自己的群里面发布公告，系统还会推送消息，说有公告产生，应该是别人发布公告，我不知道，系统才推送消息</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>消息 提示 群 里面 发布公告 系统 还会 推送 消息 说 公告 产生 应该 发布公告 知道 系统 推送 消息</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000008620</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>该软件界面中的历史消息查询功能似乎存在逻辑错误。用户在搜索栏中尝试输入现在以后的日期（如2017年）进行查询时，系统没有按照预期返回“暂无消息”。相反，它显示了从2016年12月16日至今的所有历史消息，这明显违背了问题描述中的“只能查找现在以前的消息”的要求。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>界面 历史 消息 查询 逻辑 错误 搜索 栏中 输入 现在 以后 日期 2017 年 进行 查询 系统 没有 预期 返回 暂无 消息 相反 2016 年 12 月 16 日 历史 消息 明显 违背 只能 查找 现在 以前 消息 要求</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000009403</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>该软件在查询12月3日以前的日期时，显示了当天的聊天记录，而预期输出是“暂无消息”。这可能表明软件在处理历史消息查询时存在错误，特别是在跨年日期的情况下。</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>查询 12 月 日 以前 日期 当天 聊天记录 预期 输出 暂无 消息 表明 软件 处理 历史 消息 查询 错误 特别 跨 年 日期 情况</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000009990</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>该软件在处理数字消息时存在一个bug。具体来说，当用户尝试编辑他们发送的数字消息的前面部分时，系统并没有正确地更新这些数字。例如，如果用户原本发送了“12345”，之后尝试编辑为“123”，系统会显示“12345”而不是“123”。这意味着编辑功能没有按照预期工作，导致用户无法准确、有效地修改他们的数字消息。</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>处理 数字 消息 具体来说 编辑 发送 数字 消息 前面 部分 系统 没有 正确 更新 数字 原本 发送 12345 之后 编辑 123 系统 12345 123 意味着 编辑 没有 预期 工作 无法 准确 有效 修改 数字 消息</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10010000009298</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>在手机的聊天应用中，存在一个功能缺失的问题。具体来说，用户无法通过设置来调整接收消息时的提示音或振动模式，只能依赖手机的媒体音量控制来实现这一点。这导致用户在需要集中注意力或处于安静环境下时，无法有效地管理聊天应用的通知，影响了用户体验。</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>手机 聊天 应用 缺失 具体来说 无法 设置 调整 接收 消息 提示音 振动模式 只能 依赖 手机 媒体 音量控制 实现 一点 集中 注意力 处于 安静 环境 下时 无法 有效 管理 聊天 应用 通知</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000009009</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>红米note3手机上运行时会出现语音消息无法听取的现象</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>红米 note3 手机 运行 时会 出现 语音 消息 无法 听取 现象</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000009288</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>测试“聊天消息”，进入界面是历史消息，且消息没有所发人员区分，不利于辨别是那些成员发送的消息。</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>聊天 消息 进入 界面 历史 消息 消息 没有 发 人员 区分 不利于 辨别 成员 发送 消息</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10010000009165</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>陌生人被我拒绝了好友请求后扔可以给我发消息</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>陌生人 拒绝 好友 请求 扔 给我发 消息</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10010000009359</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>该软件在接收系统消息时存在缺陷。首先，用户无法在手机的通知栏中看到来自系统的直接消息，这可能导致用户错过重要信息。其次，虽然用户可以查看未读的群聊消息，但系统消息并未明确显示“您已成功加入该群”，这可能会给用户造成混淆或不便。此外，从图片中可以看出，界面设计上似乎存在一些不一致性或错误，例如头像和名称的位置可能与预期不符。这些综合问题表明，该软件在处理系统消息通知方面存在问题，需要进一步的调试和优化。</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>接收 系统 消息 缺陷 无法 手机 通知 栏中 看到 系统 消息 错过 重要 信息 查看 未读 群聊 消息 系统 消息 并未 明确 成功 加入 该群 造成 混淆 不便 图片 看出 界面设计 不一致性 错误 头像 名称 位置 预期 不符 综合 表明 处理 系统 消息 通知 方面 进一步 调试 优化</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10010000009556</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>该软件在处理好友请求消息后，并没有提供明确的操作提示来告知用户是选择同意还是拒绝。这使得用户无法明确知道他们的操作结果，可能导致误操作或混淆。</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>处理 好友 请求 消息 没有 提供 明确 提示 告知 选择 同意 拒绝 无法 明确 知道 误操作 混淆</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10010000009416</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>这个bug描述了一个软件中的错误行为，即用户界面中出现了给自己发送消息的选项。根据问题描述和图片，我们可以看到一个聊天窗口中有一个蓝色的消息气泡，其中包含三个笑脸表情符号和一个感叹号。然而，根据常规的聊天应用设计，用户不应该能够给自己发送消息。这个bug可能是由于软件中的某个逻辑错误导致的，它允许了用户向自己发送消息的功能，而这个功能通常是被禁用的。</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>软件 错误行为 用户界面 出现 发送 消息 选项 图片 看到 聊天 窗口 中有 蓝色 消息 气泡 包含 三个 笑脸 表情符号 感叹号 常规 聊天 应用 设计 应该 能够 发送 消息 软件 逻辑 错误 允许 发送 消息 通常 禁用</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10010000009580</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>在进入群聊时，用户会收到系统通知并看到群消息。然而，当用户退出该群聊时，他们无法接收到任何新消息，并且没有系统提示表明他们已经离开该群聊。</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>进入 群聊 收到 系统 通知 看到 群 消息 退出 群聊 无法 接收 新 消息 没有 系统 提示 表明 离开 群聊</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10010000009770</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>该软件在添加群成功的通知功能中存在明显的缺陷。用户在加入群聊后，并未收到预期的手机通知消息，而仅在群聊天的消息中看到了“某某某 已经成功加入该群”的提示。此外，系统消息中并没有相应的通知，导致用户无法得知自己已成功加入群组。这可能影响用户的使用体验，因为他们无法及时确认自己的操作结果。</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>添加 群 成功 通知 明显 缺陷 加入 群聊 并未 收到 预期 手机 通知 消息 而仅 群 聊天 消息 看到 某某某   成功 加入 该群 提示 系统 消息 没有 相应 通知 无法 得知 成功 加入 群组 无法 及时 确认</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10010000009776</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>该软件界面显示的好友消息助手的历史消息部分为空，没有展示任何历史消息记录。</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>界面显示 好友 消息 助手 历史 消息 部分 为空 没有 展示 历史 消息 记录</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>10010000009756</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>建议下版本添加“群消息助手删除”功能</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>建议 版本 添加 群 消息 助手 删除</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10010000008904</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>问题描述:用户申请加群发来的消息，审批一条后其余全部置灰
 前置条件:已近入群消息助手界面
@@ -1218,7 +1643,7 @@
 1.所有消息置灰</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>: 申请 加 群发 消息 审批 一条 置 灰 
  前置条件 : 已近 入群 消息 助手 界面 
@@ -1230,31 +1655,49 @@
  . 消息 置 灰</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10010000008508</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>在进入发送消息界面时，用户发现显示的聊天界面不是他们预期的，而是之前已经查看过的。这个问题可能是由于软件内部的某些错误或配置问题导致的，导致应用程序没有正确地加载当前的聊天对话。</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>进入 发送 消息 界面 发现 聊天 界面 预期 之前 查看 软件 内部 错误 配置 应用程序 没有 正确 加载 当前 聊天 对话</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10010000008824</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>1.测试功能：接收消息收到提示音
 2.重现步骤：修改在设置中打开接收新消息提醒与声音提醒，并打开手机相应声音，与好友互动，接收好友信息收到提示音
@@ -1262,7 +1705,7 @@
 4.预期结果：有声音提醒</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>. 接收 消息 收到 提示音 
  . 重现 修改 设置 打开 接收 新 消息 提醒 声音 提醒 打开 手机 相应 声音 好友 互动 接收 好友 信息 收到 提示音 
@@ -1270,948 +1713,1438 @@
  . 预期 声音 提醒</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>10010000008118</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>该应用程序在创建新的群聊后，出现了一个不应该出现的提示消息“查看更多消息”。根据预期，新创建的群聊应该没有历史消息可供查看，因此这个提示消息是不正确的。这可能表明应用程序在处理新群聊的逻辑时存在问题，或者是用户界面的一个设计错误。</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>应用程序 创建 新 群聊 出现 应该 出现 提示 消息 查看 更 消息 预期 新创建 群聊 应该 没有 历史 消息 供 查看 提示 消息 正确 表明 应用程序 处理 新 群聊 逻辑 用户界面 设计 错误</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10010000008910</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>在群组设置中，当用户尝试多次快速切换消息免打扰功能时，系统似乎出现了性能问题。这导致了无提示的界面，使得用户感觉像是系统一直处于等待状态，无法正常地完成操作。</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>群组 设置 多次 快速 切换 消息 免 打扰 系统 出现 性能 提示 界面 感觉 像是 系统 一直 处于 等待 状态 无法 正常 完成</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10010000008346</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>发送和接收到的语音消息大概率复现无声音。</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>发送 接收 语音 消息 概率 复现 声音</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10010000008648</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>在有网的情况下，消息发不出去。</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>网 情况 消息 发 出去</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10010000008850</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>该软件在发送和接收语音消息功能上存在缺陷。用户无法成功发送或接收语音消息，这可能导致通信中断或信息传递失败的问题。</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>发送 接收 语音 消息 缺陷 无法 成功 发送 接收 语音 消息 通信 中断 信息 传递 失败</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10010000008744</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>进行完2操作后，消息提示仍显示未读，多次点击后才正常消失。(截图时间可证明)</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>进行 完 消息 提示 未读 多次 点击 正常 消失 ( 截图 时间 证明 )</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10010000009075</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>描述：该软件在处理群聊验证消息时存在一个bug。当用户拒绝某位发送者的所有验证消息后，若该发送者稍后再次发送验证消息，并且该消息被用户点击同意，该发送者将能够加入群聊，尽管之前他们的所有消息都被拒绝了。</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>处理 群聊 验证 消息 拒绝 某位 发送者 验证 消息 若该 发送者 稍后 再次 发送 验证 消息 消息 点击 同意 发送者 能够 加入 群聊 之前 消息 拒绝</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10010000009212</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>该软件中存在一个消息免打扰的bug。当用户启用此功能后，如果群聊中有新的消息，系统不会通过振动或提醒的方式通知用户，仅显示消息内容。这可能导致用户错过重要的群聊信息。</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>消息 免 打扰 启用 群聊 中有 新 消息 系统 不会 振动 提醒 方式 通知 仅 消息 内容 错过 重要 群聊 信息</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10010000009246</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>在这张图片中，用户在14:53申请加入一个群组。然而，系统似乎没有正确地发送拒绝消息给用户，因为屏幕上显示了“74%”和“73%”，这似乎是某种进度或状态指示器，而不是预期的拒绝消息。这表明系统可能未能正确处理用户的申请，或者其通知机制出现了故障。</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>图片 14 : 53 申请加入 群组 系统 没有 正确 发送 拒绝 消息 屏幕 74% 73% 某种 进度 状态 指示器 预期 拒绝 消息 表明 系统 未能 正确处理 申请 通知 机制 出现 故障</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>10010000008095</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>创建群组后，尝试查看历史消息时，界面上出现了两个查询图标。当用户在输入框中输入“测试”并点击查询后，系统响应时间过长，没有在预期时间内显示查询结果。</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>创建 群组 查看 历史 消息 界面 出现 两个 查询 图标 输入框 输入 点击 查询 系统 响应 时间 过长 没有 预期 时间 查询</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10010000008149</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>该软件界面显示了一个聊天历史消息的功能。在查看特定日期（例如2013年）的历史消息时，出现了控件错位的问题。具体地，日期选择器和相应的日期标签似乎没有正确对齐，导致用户界面的视觉不协调。这种错位可能会影响用户对该功能的使用体验，因为错位的部分可能会遮挡或误导用户对信息的理解。</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>界面显示 聊天 历史 消息 查看 特定 日期 2013 年 历史 消息 出现 控件 错位 具体 日期 选择器 相应 日期 标签 没有 正确 对齐 用户界面 视觉 协调 错位 错位 部分 遮挡 误导 信息 理解</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10010000008358</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>个人设置页面隐藏太深导致修改编辑账户信息非常难找，体验非常差；查看历史消息记录页面非常简陋，跟其他地方风格不同</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>个人 设置 页面 隐藏 太深 修改 编辑 账户 信息 非常 难 找 非常 差 查看 历史 消息 记录 页面 非常 简陋 地方 风格 不同</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10010000009468</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>该软件中的历史消息页面在成功进入群聊后出现布局问题。用户点击历史消息后，进入的页面设计不符合审美标准，显示为不美观的布局。</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>历史 消息 页面 成功 进入 群聊 出现 布局 点击 历史 消息 进入 页面 设计 符合 审美 标准 不美观 布局</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10010000009961</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>在查看历史消息的界面中，查询项的显示方式非常不协调和不美观。其布局和设计元素似乎没有经过合理的排版，导致整体视觉效果不佳。用户在使用过程中可能会感到不适，从而影响他们的使用体验。</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>查看 历史 消息 界面 查询 项 显示方式 非常 协调 不美观 布局 设计 元素 没有 合理 排版 整体 视觉效果 不佳 过程 感到 不适</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10010000008944</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>在历史消息的界面中，存在两个搜索图标，其中下面的一个似乎是多余的。</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>历史 消息 界面 两个 搜索 图标 下面 多余</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>10010000007448</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>在对帖子进行评论后，用户界面右上角的新消息红色圆点没有出现，表示没有收到新消息的通知。</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>帖子 进行 评论 用户界面 右上角 新 消息 红色 圆点 没有 出现 表示 没有 收到 新 消息 通知</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10010000008447</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>在进入朋友面板并点击好友消息助手后，用户尝试点击查看更多消息以访问历史消息界面。然而，在历史消息界面中，右侧的搜索图标尺寸异常大，这导致了用户界面的视觉不平衡。该设计缺陷可能会影响用户的使用体验，因为过大的图标可能遮挡重要的信息或功能，从而造成操作上的不便。</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>进入 朋友 面板 点击 好友 消息 助手 点击 查看 更 消息 访问 历史 消息 界面 历史 消息 界面 右侧 搜索 图标 尺寸 异常 用户界面 视觉 平衡 设计 缺陷 过大 图标 遮挡 重要 信息 造成 不便</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10010000008745</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>该界面显示了一个群组设置，其中“消息免打扰”选项被激活。当用户点击此选项时，一个提示框弹出，告知用户已开启消息免打扰功能。但根据提供的信息和图片，这个框的生命周期似乎非常短，导致用户体验不佳，误认为应用程序存在问题。</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>界面显示 群组 设置 消息 免 打扰 选项 激活 点击 选项 提示框 弹 出 告知 开启 消息 免 打扰 提供 信息 图片 框 生命周期 非常 短 不佳 误认为 应用程序</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10010000010033</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>因为网络的原因，无法发出去的消息，长按，没有重新发送的按钮，体验不好。</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>网络 原因 无法 发出 消息 长 没有 重新 发送 按钮 不好</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10010000009657</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>该软件在用户与已删除好友进行消息交流时，并未提供适当的系统通知。即使对方用户已经从好友列表中被移除，当前用户仍然可以发送消息，并且系统没有给出任何提示或警告来告知这种情况。这可能导致用户继续尝试与已经不存在的联系人进行交流，从而造成不必要的混淆和误解。</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>删除 好友 进行 消息 交流 并未 提供 适当 系统 通知 好友 列表 移除 当前 仍然 发送 消息 系统 没有 给出 提示 警告 告知 情况 继续 联系人 进行 交流 造成 不必要 混淆 误解</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10010000008898</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>在群设置界面中，当用户试图设置消息免打扰时，提示信息显示得过于简短和迅速，导致用户在阅读完所有提示信息之前，提示就消失了。</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>群 设置 界面 试图 设置 消息 免 打扰 提示信息 过于 简短 迅速 阅读 完 提示信息 之前 提示 消失</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10010000009187</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>该界面在查看历史消息的功能上存在设计缺陷，其视觉效果与市场上其他应用（如QQ）相比存在明显差距。用户在使用过程中可能会因此感到不适，影响用户体验。</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>界面 查看 历史 消息 设计 缺陷 视觉效果 市场 应用 QQ 相比 明显 差距 过程 感到 不适</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10010000008843</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>该软件在接收或发送语音消息时存在明显的功能性缺陷。用户无法听到他们收到的语音消息，或者他们自己发出的语音消息。这种问题可能是由于软件中的音频处理功能出现故障，或者是与设备的音频设置相关的技术问题导致的。</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>接收 发送 语音 消息 明显 功能性 缺陷 无法 听到 收到 语音 消息 发出 语音 消息 软件 音频 处理 出现 故障 设备 音频 设置 相关 技术</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10010000009008</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>该图像显示了一个手机聊天应用的界面，其中包含了复制和粘贴操作的多个示例。在聊天记录中，用户尝试复制并粘贴信息，但似乎没有成功覆盖原始消息。具体来说，当用户尝试通过“复制”功能选择文本时，文本被高亮显示，表明它已被选中。然而，当用户点击“粘贴”按钮时，文本并没有出现在预期的位置，而是覆盖了其他消息。这表明复制和粘贴功能可能没有正确地将选中的文本插入到指定位置，而是将其放置在了当前光标所在的位置，这导致了一系列重叠的消息。</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>手机 聊天 应用 界面 包含 复制 粘贴 多个 示例 聊天记录 复制 粘贴 信息 没有 成功 覆盖 原始 消息 具体来说 复制 选择 文本 文本 高亮 表明 选中 点击 粘贴 按钮 文本 没有 出现 预期 位置 覆盖 消息 表明 复制 粘贴 没有 正确 选中 文本 插入 指定 位置 放置 当前 光标 位置 一系列 重叠 消息</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10010000009747</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>消息在短暂时间内发送过多会被系统禁言，但依旧可以发送消息。</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>消息 短暂 时间 发送 过多会 系统 禁言 依旧 发送 消息</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10010000008169</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>当有新人加入群聊或对方同意加好友请求时或其他情况时，朋友界面会有红色圆圈消息提示，点击对应消息查看，若点击的是头像再退出时，红色提示不会消失，只有点击头像后面的区域再退出时，红色提示才会消失</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>当有 新人 加入 群聊 同意 加 好友 请求 情况 朋友 界面 红色 圆圈 消息 提示 点击 对应 消息 查看 点击 头像 退出 红色 提示 不会 消失 点击 头像 后面 区域 退出 红色 提示 消失</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10010000008792</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>点击群消息助手时，有时可能出现进不去的情况，需要二次点击才能进去</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>点击 群 消息 助手 出现 进不去 情况 二次 点击 进去</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10010000007993</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>首次打开JayMe尝试发送语音消息时，在”JayMe正在尝试通话录音和本地录音“弹框中选择”拒绝“后，之后每次发送语音消息时只提示”录音太短“。【PS：对比QQ，会提醒用户录音权限已关闭，需手动设置打开】</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>首次 打开 JayMe 发送 语音 消息 JayMe 正在 通话录音 录音 弹框 选择 拒绝 之后 每次 发送 语音 消息 提示 录音 太短 PS QQ 提醒 录音 权限 关闭 需 手动 设置 打开</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10010000008772</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>图片中显示的语音消息在播放时出现了杂音，这可能意味着语音消息在传输或录制过程中受到了干扰，导致其质量下降。</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>图片 语音 消息 播放 出现 杂音 意味着 语音 消息 传输 录制 过程 干扰 质量 下降</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10010000008888</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>在中国联通的群组设置页面中，用户有时无法正常操作“消息免打扰”选项，或者在选择该选项时反应延迟。</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>中国联通 群组 设置 页面 无法 正常 消息 免 打扰 选项 选择 选项 反应 延迟</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10010000008876</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>在群组设置界面中，当用户试图点击消息免打扰选项时，出现的提示框信息显示时间过短，以至于用户无法完全阅读提示内容。这可能导致用户误操作或对功能产生误解。</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>群组 设置 界面 试图 点击 消息 免 打扰 选项 出现 提示框 信息 时间 短 无法 完全 阅读 提示 内容 误操作 产生误解</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10010000009155</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>该聊天应用在设置好友免打扰时，其提示时间过短，导致用户可能无法及时了解或调整免打扰的开启时长，从而影响了用户的使用体验。</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>聊天 应用 设置 好友 免 打扰 提示 时间 短 无法 及时 了解 调整 免 打扰 开启 长</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10010000008141</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>该软件界面在用户试图设置消息免打扰时，出现了一个短暂的弹出对话框。这个对话框的持续时间过短，导致用户可能会误认为软件中存在其他问题。</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>界面 试图 设置 消息 免 打扰 出现 短暂 弹出 对话框 对话框 持续时间 短 误认为 软件</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10010000008549</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>该软件在处理不同群组消息通知时存在逻辑错误。当用户在当前聊天页面收到另一个群组的消息通知并点击进入时，系统错误地新建了一个聊天页面而不是切换到目标群组的聊天页面，这与用户的正常使用习惯不符。此外，如果用户在A群组的聊天页面下收到B群组的消息并点击进入，之后再收到A群组的消息并点击，系统会错误地新建一个A群组的聊天页面而非切换回之前的聊天页面，这进一步增加了用户操作的复杂性和不便。</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>处理 不同 群组 消息 通知 逻辑 错误 当前 聊天 页面 收到 群组 消息 通知 点击 进入 系统 错误 新建 聊天 页面 切换 目标 群组 聊天 页面 正常 习惯 不符 A 群组 聊天 页面 收到 B 群组 消息 点击 进入 之后 收到 A 群组 消息 点击 系统 错误 新建 A 群组 聊天 页面 非 切换 回 之前 聊天 页面 进一步 增加 复杂性 不便</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10010000008200</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>该软件在发起群聊后，当用户在群聊中只发送一条消息且未满一屏时，屏幕最上方出现了“查看更多消息”的提示。然而，根据问题描述，这个提示应该在消息满一屏时才出现。因此，当前的界面布局与用户需求不符，可能导致用户的困惑或误操作。</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>发起 群聊 群聊 发送 一条 消息 未满 一屏 屏幕 上方 出现 查看 更 消息 提示 提示 应该 消息 满一屏 出现 当前 界面 布局 需求 不符 困惑 误操作</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10010000008552</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>该应用程序在“消息免打扰”功能设置后，没有提供任何视觉或文字提示来告知用户他们已经开启了此功能。这可能导致用户误操作后无法接收到相关群组的消息通知，从而影响用户的正常使用和沟通。</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>应用程序 消息 免 打扰 设置 没有 提供 视觉 文字 提示 告知 开启 误操作 无法 接收 相关 群组 消息 通知 正常 沟通</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10010000008868</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>问题描述：在新用户邀请好友创建完群组后，在尝试设置群消息免打扰模式时，App的响应速度过快，导致设置结果的通知提示出现得过于迅速，使得用户无法及时看清设置的结果。这种情况可能会影响用户的使用体验，因为他们不能立即得知设置是否成功，从而可能感到困惑或不便。</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>新 邀请 好友 创建 完 群组 设置 群 消息 免 打扰 模式 App 响应速度 过快 设置 通知 提示 出现 过于 迅速 无法 及时 看清 设置 情况 不能 立即 得知 设置 是否 成功 感到 困惑 不便</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10010000008680</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>在正常使用过程中并未发现什么问题，测试设计的各项内容均能正常使用。有个问题，就是在发图片时，如果图片较大，发送延时，本来是在其他聊天消息之前的，由于发送慢，在其他消息发送后才完全发出，导致聊天界面混乱。</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>正常 过程 并未 发现 设计 各项 内容 均 正常 有个 发图片 图片 较大 发送 延时 本来 聊天 消息 之前 发送 慢 消息 发送 完全 发出 聊天 界面 混乱</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10010000008258</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>在群助手中，当其他用户申请加入群时，该消息不仅在本群内显示，还显示在群助手中。这种设计可能导致群助手的消息列表变得混乱和难以管理，特别是当有大量此类消息时。</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>群 助手 申请加入 群时 消息 群内 群 助手 设计 群 助手 消息 列表 变得 混乱 难以 管理 特别 大量 此类 消息</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10010000008478</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>在软件界面设计中，系统消息提示与最近联系人的显示位置被合并在一起，这可能导致用户界面混乱和用户体验下降。当用户尝试查看他们的最近联系人时，可能会被突然弹出的加群提示或其他系统消息干扰，这可能影响用户的操作流畅性。</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>软件 界面设计 系统 消息 提示 最近 联系人 位置 合并 一起 用户界面 混乱 下降 查看 最近 联系人 突然 弹出 加群 提示 系统 消息 干扰 流畅性</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10010000008343</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>在查好群的输入框中输入“～^O^”时，下面没有任何提示消息。</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>查 群 输入框 输入 ～ ^ O ^ 下面 没有 提示 消息</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10010000008418</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>在步骤1中，当用户尝试进入“更多”选项并测试“消息免打扰”功能时，遇到了一个界面闪现的问题。由于这个突然的界面变化，提示信息迅速闪烁而过，导致用户无法清晰地看到具体的提示内容。这样的用户体验问题可能会使用户感到困惑或沮丧，因为他们无法有效地使用或了解该功能。</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>进入 更 选项 消息 免 打扰 遇到 界面 闪现 突然 界面 变化 提示信息 迅速 闪烁 无法 清晰 看到 具体 提示 内容 感到 困惑 沮丧 无法 有效 了解</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10010000009066</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>不经过同意便可以给陌生人发送消息，拉黑后才能防止骚扰。但是，创建群聊时可以拉入陌生人，并且不需要经过他同意。就算用户被拉黑，也能将拉黑他的人拉入群。这很容易让用户遭受骚扰，并且拉黑也不能阻止骚扰</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>同意 便 陌生人 发送 消息 拉 黑后 防止 骚扰 创建 群聊 拉 入 陌生人 同意 拉 黑 拉 黑 人拉入 群 容易 遭受 骚扰 拉 黑 不能 阻止 骚扰</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10010000008510</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>该软件界面显示用户尝试发送消息，但消息无法成功发送。尽管网络连接正常并且有速度显示，但消息按钮似乎没有反应或被禁用。这可能表明一个功能性的问题，即消息发送功能可能出现了故障或错误。</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>界面显示 发送 消息 消息 无法 成功 发送 网络连接 正常 速度 消息 按钮 没有 反应 禁用 表明 功能性 消息 发送 出现 故障 错误</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10010000008725</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>如果有人发送一长段文字，或者是一长段表情，接收群组里的长消息时，此消息被分割成很多段。用户体验差。</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>有人 发送 一长 段 文字 一长 段 表情 接收 群组 里 长 消息 消息 分割 成 很多 段 差</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10010000008981</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="C94" t="n">
+        <v>4</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>在群聊功能中，用户试图查看历史消息时，界面的跳转导致了一个视觉和用户体验的问题。具体来说，历史消息的排版显得非常粗糙，关键字和日期的搜索框没有按照统一的格式或风格排列，给人一种混乱和不协调的感觉。此外，界面缺少下拉刷新的功能，这可能会影响用户更新信息的体验。</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>群聊 试图 查看 历史 消息 界面 跳转 视觉 具体来说 历史 消息 排版 显得 非常 粗糙 关键字 日期 搜索 框 没有 统一 格式 风格 排列 一种 混乱 协调 感觉 界面 缺少 拉 刷新 更新 信息</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10010000009608</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>在聊天界面，当用户发送消息时，仅显示好友的名字，而没有展示自己的聊天昵称。这种情况可能会给用户带来混淆和不便，因为他们无法清楚地知道自己是谁，以及他们的消息是由谁发出的。</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>聊天 界面 发送 消息 仅 好友 名字 没有 展示 聊天 昵称 情况 带来 混淆 不便 无法 清楚 知道 消息 发出</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10010000009951</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>在“历史消息”界面中，用户点击进入并尝试搜索时，系统的反应速度明显减慢，加载时间过长导致用户体验下降。</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>历史 消息 界面 点击 进入 搜索 系统 反应速度 明显 减慢 加载 时间 过长 下降</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10010000008783</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>该软件在删除聊天消息记录后，删除按钮没有正确地变为灰色，导致用户可以反复进行无用的删除操作。</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>删除 聊天 消息 记录 删除 按钮 没有 正确 变为 灰色 反复 进行 无用 删除</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10010000009047</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>在测试“消息免打扰”功能时，用户界面出现短暂的闪烁，导致提示信息无法被清晰阅读。这极大地影响了用户的使用体验，并被认为是一个严重的质量问题。</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>消息 免 打扰 用户界面 出现 短暂 闪烁 提示信息 无法 清晰 阅读 极大 认为 严重 质量</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>10010000009709</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="C99" t="n">
+        <v>5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>群功能问题有时创建群，对方手机不显示其在群中也无法收到消息</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>群 创建 群 手机 群中 无法 收到 消息</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10010000009273</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>软件消息提示是与本机的铃声音量相连接的，但一般人都会把铃声音量开的比较高，这样有消息提示的时候声音就显得比较大，比较刺耳了</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>软件 消息 提示 本机 铃声 音量 相连接 铃声 音量 开 比较 高 消息 提示 声音 显得 比较 比较 刺耳</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10010000009537</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>在聊天界面中，联系人列表显示存在逻辑错误。给自己发送消息的联系人并没有按照时间顺序或特定的排序规则排列，而是与未给自己发送消息的用户混合在一起。这种排列方式不符合用户的期望和习惯，可能会对用户体验造成不便。</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>聊天 界面 联系人 列表 逻辑 错误 发送 消息 联系人 没有 时间 顺序 特定 排序 规则 排列 未 发送 消息 混合 一起 排列 方式 符合 期望 习惯 造成 不便</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>10010000009603</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>在进行测试，发现：
 1、群主身份，更改成功，并无更改成功消息提示
 2、不是群主身份，无法更改，却无无法更改消息提示</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>进行 发现 
  群主 身份 更改 成功 更改 成功 消息 提示 
  群主 身份 无法 更改 无法 更改 消息 提示</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>10010000009733</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>聊天界面消息查看，当还没有到下一屏幕时，还有文字提示标签，屏幕转换不流畅用户体验差，严重程度较轻</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>聊天 界面 消息 查看 没有 屏幕 文字 提示 标签 屏幕 转换 流畅 差 严重 程度 轻</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
